--- a/Code/Results/Cases/Case_1_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.11908083985418</v>
+        <v>20.10036642348715</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.790499224317801</v>
+        <v>11.3164693344574</v>
       </c>
       <c r="E2">
-        <v>14.76771093659899</v>
+        <v>17.84191356875908</v>
       </c>
       <c r="F2">
-        <v>14.51632638312607</v>
+        <v>27.24940989735213</v>
       </c>
       <c r="G2">
-        <v>18.30041562415115</v>
+        <v>24.89018804700333</v>
       </c>
       <c r="H2">
-        <v>7.291282090379009</v>
+        <v>13.32108697707024</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.91651195836895</v>
+        <v>12.17260747219138</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.32339516859989</v>
+        <v>12.66531499347237</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.63762423832394</v>
+        <v>19.758278515085</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.60692073592752</v>
+        <v>19.53616503822142</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.873077080805189</v>
+        <v>11.3669313530876</v>
       </c>
       <c r="E3">
-        <v>14.44590237943337</v>
+        <v>17.8087526950473</v>
       </c>
       <c r="F3">
-        <v>14.74537125341882</v>
+        <v>27.47001971590002</v>
       </c>
       <c r="G3">
-        <v>17.68531768044067</v>
+        <v>25.00564368637249</v>
       </c>
       <c r="H3">
-        <v>7.35767369791815</v>
+        <v>13.3883897808976</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.699737101103736</v>
+        <v>12.14449798796281</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.22189541411472</v>
+        <v>12.15679027201557</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.59305778836494</v>
+        <v>19.86999273839701</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62883064410382</v>
+        <v>19.18118461436417</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.928088842179241</v>
+        <v>11.40007084026701</v>
       </c>
       <c r="E4">
-        <v>14.25221017820575</v>
+        <v>17.7921761536263</v>
       </c>
       <c r="F4">
-        <v>14.91855104088821</v>
+        <v>27.6149000655338</v>
       </c>
       <c r="G4">
-        <v>17.34059992448502</v>
+        <v>25.08958474275304</v>
       </c>
       <c r="H4">
-        <v>7.407041888601277</v>
+        <v>13.43274554819528</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.568145522053099</v>
+        <v>12.12924948587443</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.5080107844262</v>
+        <v>11.83193337726028</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.58606015978054</v>
+        <v>19.94491920226819</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.21783574253227</v>
+        <v>19.0345523835764</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.951569164957709</v>
+        <v>11.41411835830075</v>
       </c>
       <c r="E5">
-        <v>14.17434987552423</v>
+        <v>17.78638115811065</v>
       </c>
       <c r="F5">
-        <v>14.99671688110102</v>
+        <v>27.67630248125171</v>
       </c>
       <c r="G5">
-        <v>17.2085024102428</v>
+        <v>25.12704275728408</v>
       </c>
       <c r="H5">
-        <v>7.429211335382675</v>
+        <v>13.45158214885211</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.514959134918628</v>
+        <v>12.12354709207974</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.20767331015792</v>
+        <v>11.69651615404923</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.58808925948759</v>
+        <v>19.97703773349647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.14884301471438</v>
+        <v>19.01009037047504</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.955531652174261</v>
+        <v>11.41648375390414</v>
       </c>
       <c r="E6">
-        <v>14.16148857016449</v>
+        <v>17.78547712363608</v>
       </c>
       <c r="F6">
-        <v>15.01013818935986</v>
+        <v>27.68664077981175</v>
       </c>
       <c r="G6">
-        <v>17.18707515300891</v>
+        <v>25.13345808542742</v>
       </c>
       <c r="H6">
-        <v>7.433013277295752</v>
+        <v>13.45475590039205</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.506155796603059</v>
+        <v>12.12263127108939</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.15723436232557</v>
+        <v>11.67385129672434</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.58871368875336</v>
+        <v>19.98246653316226</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6233379846048</v>
+        <v>19.17921483322056</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.928401230052728</v>
+        <v>11.40025809064836</v>
       </c>
       <c r="E7">
-        <v>14.25115567084941</v>
+        <v>17.79209410233311</v>
       </c>
       <c r="F7">
-        <v>14.91957522561058</v>
+        <v>27.6157186041146</v>
       </c>
       <c r="G7">
-        <v>17.33878441490707</v>
+        <v>25.0900767914609</v>
       </c>
       <c r="H7">
-        <v>7.407332711552411</v>
+        <v>13.43299650423151</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.567426378392257</v>
+        <v>12.12917050292531</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.50399844159657</v>
+        <v>11.83011918737934</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.58606809065725</v>
+        <v>19.94534595442574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.60801231441263</v>
+        <v>19.90770846336206</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.818064775981853</v>
+        <v>11.33342176000963</v>
       </c>
       <c r="E8">
-        <v>14.65599556791602</v>
+        <v>17.82969954253383</v>
       </c>
       <c r="F8">
-        <v>14.58818325058379</v>
+        <v>27.32351542856886</v>
       </c>
       <c r="G8">
-        <v>18.08156244956197</v>
+        <v>24.92727070138454</v>
       </c>
       <c r="H8">
-        <v>7.312319567254201</v>
+        <v>13.3436631474497</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.841489407211593</v>
+        <v>12.16250158725223</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.95139971444476</v>
+        <v>12.4926724036742</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.61789045208253</v>
+        <v>19.79547874004146</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10525724681783</v>
+        <v>21.2612471617243</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.636903268721767</v>
+        <v>11.21942132384344</v>
       </c>
       <c r="E9">
-        <v>15.47700411126547</v>
+        <v>17.93306882784208</v>
       </c>
       <c r="F9">
-        <v>14.22406803669854</v>
+        <v>26.82563248149613</v>
       </c>
       <c r="G9">
-        <v>19.79308922533335</v>
+        <v>24.71283061053414</v>
       </c>
       <c r="H9">
-        <v>7.199491341706793</v>
+        <v>13.19258193542983</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.38845007820668</v>
+        <v>12.24354749174992</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.49181761524036</v>
+        <v>13.68661553058802</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.85177267318592</v>
+        <v>19.55216343726455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43470697268091</v>
+        <v>22.20133159603876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.526812112299443</v>
+        <v>11.14601660603197</v>
       </c>
       <c r="E10">
-        <v>16.09194787297293</v>
+        <v>18.02649279174837</v>
       </c>
       <c r="F10">
-        <v>14.16906038821629</v>
+        <v>26.50611958709672</v>
       </c>
       <c r="G10">
-        <v>21.19512252300167</v>
+        <v>24.62077804489341</v>
       </c>
       <c r="H10">
-        <v>7.16884110203913</v>
+        <v>13.09634009074095</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.79308611696149</v>
+        <v>12.31226955302135</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.17792043798647</v>
+        <v>14.49377191254199</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.14012742737203</v>
+        <v>19.40466600649472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.442909107813</v>
+        <v>22.61563291420337</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.482104217490102</v>
+        <v>11.11485985390172</v>
       </c>
       <c r="E11">
-        <v>16.37336362549238</v>
+        <v>18.07265144794043</v>
       </c>
       <c r="F11">
-        <v>14.1982544940336</v>
+        <v>26.37092416045556</v>
       </c>
       <c r="G11">
-        <v>21.86183749571154</v>
+        <v>24.59341663728402</v>
       </c>
       <c r="H11">
-        <v>7.167906426565936</v>
+        <v>13.05577611827759</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.97721811345412</v>
+        <v>12.34543751176212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.90634640946506</v>
+        <v>14.84480841376603</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.29869426198669</v>
+        <v>19.34444699671918</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.81735499999648</v>
+        <v>22.77048476191025</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.465982108751038</v>
+        <v>11.10338226342616</v>
       </c>
       <c r="E12">
-        <v>16.48010497871101</v>
+        <v>18.09064416742597</v>
       </c>
       <c r="F12">
-        <v>14.21772919520117</v>
+        <v>26.32119889471346</v>
       </c>
       <c r="G12">
-        <v>22.11827084538642</v>
+        <v>24.58516295589125</v>
       </c>
       <c r="H12">
-        <v>7.16956298800068</v>
+        <v>13.04087950524125</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.04691344837551</v>
+        <v>12.35826347250955</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.17668841045421</v>
+        <v>14.97535146644205</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.36281583068354</v>
+        <v>19.3226402689796</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.73703657814556</v>
+        <v>22.73722687352303</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.469417775823866</v>
+        <v>11.10583991068373</v>
       </c>
       <c r="E13">
-        <v>16.45710946958474</v>
+        <v>18.08674648822238</v>
       </c>
       <c r="F13">
-        <v>14.21315112979899</v>
+        <v>26.33184255929159</v>
       </c>
       <c r="G13">
-        <v>22.06286992093158</v>
+        <v>24.5868465067972</v>
       </c>
       <c r="H13">
-        <v>7.16911456191483</v>
+        <v>13.04406709310812</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.03190528935525</v>
+        <v>12.35548947494492</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.11870898451171</v>
+        <v>14.94734377558039</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.34882290611944</v>
+        <v>19.32729227701938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.47386164983218</v>
+        <v>22.62841407564251</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.480761440821917</v>
+        <v>11.11390916010091</v>
       </c>
       <c r="E14">
-        <v>16.38214213097381</v>
+        <v>18.07412150519023</v>
       </c>
       <c r="F14">
-        <v>14.19968455907492</v>
+        <v>26.36680370514389</v>
       </c>
       <c r="G14">
-        <v>21.88285602879051</v>
+        <v>24.59269525750551</v>
       </c>
       <c r="H14">
-        <v>7.168001614330308</v>
+        <v>13.05454125539487</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.98295283106857</v>
+        <v>12.34648742810931</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.92869744867273</v>
+        <v>14.8555964444193</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.30388719845788</v>
+        <v>19.34263292025468</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.31170588495522</v>
+        <v>22.5614948363401</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.487816054799566</v>
+        <v>11.11889356623488</v>
       </c>
       <c r="E15">
-        <v>16.33624350923608</v>
+        <v>18.06645481314515</v>
       </c>
       <c r="F15">
-        <v>14.19255001505563</v>
+        <v>26.3884102075726</v>
       </c>
       <c r="G15">
-        <v>21.77310302936374</v>
+        <v>24.59655280290561</v>
       </c>
       <c r="H15">
-        <v>7.167585899539219</v>
+        <v>13.06101746431206</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.95296284400948</v>
+        <v>12.34100780717929</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.81159570989862</v>
+        <v>14.79908594657228</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.27689721782909</v>
+        <v>19.35215956376791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36778786956932</v>
+        <v>22.17397728069621</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.529844939661291</v>
+        <v>11.14809769901478</v>
       </c>
       <c r="E16">
-        <v>16.07358459275095</v>
+        <v>18.02354877434553</v>
       </c>
       <c r="F16">
-        <v>14.16829782048723</v>
+        <v>26.51516010195302</v>
       </c>
       <c r="G16">
-        <v>21.1521157929199</v>
+        <v>24.62286003986943</v>
       </c>
       <c r="H16">
-        <v>7.169175879162652</v>
+        <v>13.09905590149978</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.78105031767004</v>
+        <v>12.31013961556542</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.12954380268352</v>
+        <v>14.47050017657939</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.13032815274091</v>
+        <v>19.40874053948781</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.77558100117177</v>
+        <v>21.93274304441507</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.557028606398934</v>
+        <v>11.16658556166537</v>
       </c>
       <c r="E17">
-        <v>15.91283145192754</v>
+        <v>17.99815570075009</v>
       </c>
       <c r="F17">
-        <v>14.16776392307672</v>
+        <v>26.59552465970651</v>
       </c>
       <c r="G17">
-        <v>20.77842099039277</v>
+        <v>24.64273139673871</v>
       </c>
       <c r="H17">
-        <v>7.173582152209089</v>
+        <v>13.12321623598798</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.67557277754119</v>
+        <v>12.29168546641611</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.70127733649408</v>
+        <v>14.26473889651674</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.04753357762937</v>
+        <v>19.44521842292891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43010924770999</v>
+        <v>21.79274127557897</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.573167403860658</v>
+        <v>11.1774297378174</v>
       </c>
       <c r="E18">
-        <v>15.82053153200456</v>
+        <v>17.9838955430078</v>
       </c>
       <c r="F18">
-        <v>14.17252505254792</v>
+        <v>26.64270319663602</v>
       </c>
       <c r="G18">
-        <v>20.56621459868629</v>
+        <v>24.65552592567762</v>
       </c>
       <c r="H18">
-        <v>7.177332439393837</v>
+        <v>13.13741532251888</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.61491269539932</v>
+        <v>12.28125102771987</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.45131374032767</v>
+        <v>14.14487420611554</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.00248404702461</v>
+        <v>19.46684649401085</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31230375585522</v>
+        <v>21.74512807511792</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.578717170058799</v>
+        <v>11.18113755421394</v>
       </c>
       <c r="E19">
-        <v>15.78931016101669</v>
+        <v>17.9791269791775</v>
       </c>
       <c r="F19">
-        <v>14.17498781919043</v>
+        <v>26.6588407446175</v>
       </c>
       <c r="G19">
-        <v>20.49484092878048</v>
+        <v>24.66009171508138</v>
       </c>
       <c r="H19">
-        <v>7.178806814013797</v>
+        <v>13.14227483344368</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.59437689322673</v>
+        <v>12.27774924620818</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.36605442241217</v>
+        <v>14.10403183222347</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.98766818881911</v>
+        <v>19.4742802633255</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.83912397787951</v>
+        <v>21.95855310866448</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.554082505698991</v>
+        <v>11.16459572149209</v>
       </c>
       <c r="E20">
-        <v>15.92992773409422</v>
+        <v>18.00082319389787</v>
       </c>
       <c r="F20">
-        <v>14.1672915504035</v>
+        <v>26.58687080546188</v>
       </c>
       <c r="G20">
-        <v>20.8179200902688</v>
+        <v>24.64047462261968</v>
       </c>
       <c r="H20">
-        <v>7.172986244387218</v>
+        <v>13.12061298795694</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.68680054302087</v>
+        <v>12.29363138090502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.74724300047267</v>
+        <v>14.28679996886698</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.05607997264113</v>
+        <v>19.44126827539599</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.55136108411026</v>
+        <v>22.66043112699017</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.47740731358915</v>
+        <v>11.11153032478737</v>
       </c>
       <c r="E21">
-        <v>16.40415757564461</v>
+        <v>18.07781593916361</v>
       </c>
       <c r="F21">
-        <v>14.20340679705672</v>
+        <v>26.35649478106064</v>
       </c>
       <c r="G21">
-        <v>21.93562435261308</v>
+        <v>24.59091999184384</v>
       </c>
       <c r="H21">
-        <v>7.168272829405263</v>
+        <v>13.05145213291888</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.9973325005718</v>
+        <v>12.349124394905</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.98465717312737</v>
+        <v>14.88261010968844</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.31697431745465</v>
+        <v>19.33809988399599</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.62767329169436</v>
+        <v>23.107241519722</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.432022510536648</v>
+        <v>11.07871856971607</v>
       </c>
       <c r="E22">
-        <v>16.71509212420133</v>
+        <v>18.1311215141799</v>
       </c>
       <c r="F22">
-        <v>14.27633543467623</v>
+        <v>26.2145058612284</v>
       </c>
       <c r="G22">
-        <v>22.68913742482663</v>
+        <v>24.57082473793097</v>
       </c>
       <c r="H22">
-        <v>7.176976481800741</v>
+        <v>13.00895725902388</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.20008522026123</v>
+        <v>12.3869386452361</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.76136781612349</v>
+        <v>15.25807062232969</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.51128765197065</v>
+        <v>19.27648765090088</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.05711043793865</v>
+        <v>22.86989515375588</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.455800358698975</v>
+        <v>11.09605996904998</v>
       </c>
       <c r="E23">
-        <v>16.54906850184986</v>
+        <v>18.10240245404467</v>
       </c>
       <c r="F23">
-        <v>14.23270673652193</v>
+        <v>26.28949988130032</v>
       </c>
       <c r="G23">
-        <v>22.28492360569905</v>
+        <v>24.58041924510137</v>
       </c>
       <c r="H23">
-        <v>7.171206491730128</v>
+        <v>13.03138949696039</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.09190217016599</v>
+        <v>12.3666177217372</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.34973225708429</v>
+        <v>15.05897447996225</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.40536173773191</v>
+        <v>19.30883669748244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.8104117895399</v>
+        <v>21.94688845935621</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.555412850215628</v>
+        <v>11.16549465765407</v>
       </c>
       <c r="E24">
-        <v>15.92219812855726</v>
+        <v>17.9996161643394</v>
       </c>
       <c r="F24">
-        <v>14.16748937214761</v>
+        <v>26.59078017386588</v>
       </c>
       <c r="G24">
-        <v>20.80005432220354</v>
+        <v>24.64149064360161</v>
       </c>
       <c r="H24">
-        <v>7.17325187403153</v>
+        <v>13.1217889539954</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.68172452829617</v>
+        <v>12.29275108690959</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.72647360026342</v>
+        <v>14.27683104261209</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.05220821486725</v>
+        <v>19.4430520928447</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.2014363417391</v>
+        <v>20.90405247994171</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.681991782673176</v>
+        <v>11.24843994939838</v>
       </c>
       <c r="E25">
-        <v>15.25251044268323</v>
+        <v>17.9019904851601</v>
       </c>
       <c r="F25">
-        <v>14.28803985495913</v>
+        <v>26.95223149841131</v>
       </c>
       <c r="G25">
-        <v>19.30382687710244</v>
+        <v>24.75944733760801</v>
       </c>
       <c r="H25">
-        <v>7.221392723509683</v>
+        <v>13.23086662253746</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.23979008641748</v>
+        <v>12.21998165234376</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.83638102919637</v>
+        <v>13.37555565823421</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.76882270642839</v>
+        <v>19.61252726398534</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.10036642348715</v>
+        <v>24.11908083985415</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.3164693344574</v>
+        <v>6.790499224317798</v>
       </c>
       <c r="E2">
-        <v>17.84191356875908</v>
+        <v>14.76771093659904</v>
       </c>
       <c r="F2">
-        <v>27.24940989735213</v>
+        <v>14.51632638312606</v>
       </c>
       <c r="G2">
-        <v>24.89018804700333</v>
+        <v>18.30041562415112</v>
       </c>
       <c r="H2">
-        <v>13.32108697707024</v>
+        <v>7.291282090379005</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.17260747219138</v>
+        <v>9.916511958368973</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.66531499347237</v>
+        <v>17.32339516859989</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.758278515085</v>
+        <v>11.63762423832393</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.53616503822142</v>
+        <v>22.60692073592754</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.3669313530876</v>
+        <v>6.873077080805063</v>
       </c>
       <c r="E3">
-        <v>17.8087526950473</v>
+        <v>14.4459023794333</v>
       </c>
       <c r="F3">
-        <v>27.47001971590002</v>
+        <v>14.74537125341863</v>
       </c>
       <c r="G3">
-        <v>25.00564368637249</v>
+        <v>17.68531768044054</v>
       </c>
       <c r="H3">
-        <v>13.3883897808976</v>
+        <v>7.357673697918145</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.14449798796281</v>
+        <v>9.699737101103716</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.15679027201557</v>
+        <v>16.22189541411475</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.86999273839701</v>
+        <v>11.59305778836486</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.18118461436417</v>
+        <v>21.62883064410381</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.40007084026701</v>
+        <v>6.928088842179292</v>
       </c>
       <c r="E4">
-        <v>17.7921761536263</v>
+        <v>14.25221017820576</v>
       </c>
       <c r="F4">
-        <v>27.6149000655338</v>
+        <v>14.91855104088829</v>
       </c>
       <c r="G4">
-        <v>25.08958474275304</v>
+        <v>17.3405999244851</v>
       </c>
       <c r="H4">
-        <v>13.43274554819528</v>
+        <v>7.407041888601339</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.12924948587443</v>
+        <v>9.568145522053081</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.83193337726028</v>
+        <v>15.50801078442618</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.94491920226819</v>
+        <v>11.5860601597806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.0345523835764</v>
+        <v>21.21783574253229</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.41411835830075</v>
+        <v>6.951569164957521</v>
       </c>
       <c r="E5">
-        <v>17.78638115811065</v>
+        <v>14.1743498755243</v>
       </c>
       <c r="F5">
-        <v>27.67630248125171</v>
+        <v>14.99671688110091</v>
       </c>
       <c r="G5">
-        <v>25.12704275728408</v>
+        <v>17.20850241024275</v>
       </c>
       <c r="H5">
-        <v>13.45158214885211</v>
+        <v>7.429211335382613</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.12354709207974</v>
+        <v>9.514959134918708</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.69651615404923</v>
+        <v>15.20767331015796</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.97703773349647</v>
+        <v>11.58808925948756</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.01009037047504</v>
+        <v>21.14884301471442</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.41648375390414</v>
+        <v>6.955531652174268</v>
       </c>
       <c r="E6">
-        <v>17.78547712363608</v>
+        <v>14.16148857016449</v>
       </c>
       <c r="F6">
-        <v>27.68664077981175</v>
+        <v>15.01013818935986</v>
       </c>
       <c r="G6">
-        <v>25.13345808542742</v>
+        <v>17.18707515300892</v>
       </c>
       <c r="H6">
-        <v>13.45475590039205</v>
+        <v>7.433013277295757</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.12263127108939</v>
+        <v>9.506155796603057</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.67385129672434</v>
+        <v>15.15723436232553</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.98246653316226</v>
+        <v>11.58871368875337</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.17921483322056</v>
+        <v>21.62333798460481</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.40025809064836</v>
+        <v>6.928401230052731</v>
       </c>
       <c r="E7">
-        <v>17.79209410233311</v>
+        <v>14.25115567084942</v>
       </c>
       <c r="F7">
-        <v>27.6157186041146</v>
+        <v>14.91957522561058</v>
       </c>
       <c r="G7">
-        <v>25.0900767914609</v>
+        <v>17.33878441490704</v>
       </c>
       <c r="H7">
-        <v>13.43299650423151</v>
+        <v>7.407332711552415</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.12917050292531</v>
+        <v>9.567426378392261</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.83011918737934</v>
+        <v>15.50399844159661</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.94534595442574</v>
+        <v>11.58606809065726</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.90770846336206</v>
+        <v>23.6080123144126</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.33342176000963</v>
+        <v>6.81806477598185</v>
       </c>
       <c r="E8">
-        <v>17.82969954253383</v>
+        <v>14.65599556791608</v>
       </c>
       <c r="F8">
-        <v>27.32351542856886</v>
+        <v>14.58818325058376</v>
       </c>
       <c r="G8">
-        <v>24.92727070138454</v>
+        <v>18.08156244956195</v>
       </c>
       <c r="H8">
-        <v>13.3436631474497</v>
+        <v>7.312319567254201</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.16250158725223</v>
+        <v>9.841489407211631</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.4926724036742</v>
+        <v>16.95139971444476</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.79547874004146</v>
+        <v>11.6178904520825</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.2612471617243</v>
+        <v>27.1052572468178</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.21942132384344</v>
+        <v>6.63690326872171</v>
       </c>
       <c r="E9">
-        <v>17.93306882784208</v>
+        <v>15.47700411126544</v>
       </c>
       <c r="F9">
-        <v>26.82563248149613</v>
+        <v>14.2240680366985</v>
       </c>
       <c r="G9">
-        <v>24.71283061053414</v>
+        <v>19.79308922533336</v>
       </c>
       <c r="H9">
-        <v>13.19258193542983</v>
+        <v>7.1994913417067</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.24354749174992</v>
+        <v>10.38845007820666</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.68661553058802</v>
+        <v>19.49181761524033</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.55216343726455</v>
+        <v>11.85177267318591</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.20133159603876</v>
+        <v>29.43470697268089</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.14601660603197</v>
+        <v>6.526812112299418</v>
       </c>
       <c r="E10">
-        <v>18.02649279174837</v>
+        <v>16.09194787297292</v>
       </c>
       <c r="F10">
-        <v>26.50611958709672</v>
+        <v>14.16906038821638</v>
       </c>
       <c r="G10">
-        <v>24.62077804489341</v>
+        <v>21.19512252300181</v>
       </c>
       <c r="H10">
-        <v>13.09634009074095</v>
+        <v>7.168841102039059</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.31226955302135</v>
+        <v>10.79308611696148</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.49377191254199</v>
+        <v>21.17792043798642</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.40466600649472</v>
+        <v>12.14012742737208</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.61563291420337</v>
+        <v>30.44290910781294</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.11485985390172</v>
+        <v>6.482104217490107</v>
       </c>
       <c r="E11">
-        <v>18.07265144794043</v>
+        <v>16.37336362549238</v>
       </c>
       <c r="F11">
-        <v>26.37092416045556</v>
+        <v>14.19825449403361</v>
       </c>
       <c r="G11">
-        <v>24.59341663728402</v>
+        <v>21.86183749571154</v>
       </c>
       <c r="H11">
-        <v>13.05577611827759</v>
+        <v>7.167906426565956</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.34543751176212</v>
+        <v>10.97721811345412</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.84480841376603</v>
+        <v>21.90634640946507</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.34444699671918</v>
+        <v>12.2986942619867</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.77048476191025</v>
+        <v>30.81735499999653</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.10338226342616</v>
+        <v>6.465982108751109</v>
       </c>
       <c r="E12">
-        <v>18.09064416742597</v>
+        <v>16.48010497871104</v>
       </c>
       <c r="F12">
-        <v>26.32119889471346</v>
+        <v>14.21772919520114</v>
       </c>
       <c r="G12">
-        <v>24.58516295589125</v>
+        <v>22.11827084538639</v>
       </c>
       <c r="H12">
-        <v>13.04087950524125</v>
+        <v>7.169562988000668</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.35826347250955</v>
+        <v>11.04691344837549</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.97535146644205</v>
+        <v>22.17668841045425</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.3226402689796</v>
+        <v>12.36281583068351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.73722687352303</v>
+        <v>30.73703657814558</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.10583991068373</v>
+        <v>6.469417775823752</v>
       </c>
       <c r="E13">
-        <v>18.08674648822238</v>
+        <v>16.45710946958475</v>
       </c>
       <c r="F13">
-        <v>26.33184255929159</v>
+        <v>14.21315112979894</v>
       </c>
       <c r="G13">
-        <v>24.5868465067972</v>
+        <v>22.06286992093153</v>
       </c>
       <c r="H13">
-        <v>13.04406709310812</v>
+        <v>7.169114561914845</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.35548947494492</v>
+        <v>11.03190528935528</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.94734377558039</v>
+        <v>22.11870898451171</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.32729227701938</v>
+        <v>12.34882290611943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.62841407564251</v>
+        <v>30.4738616498322</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.11390916010091</v>
+        <v>6.48076144082204</v>
       </c>
       <c r="E14">
-        <v>18.07412150519023</v>
+        <v>16.38214213097378</v>
       </c>
       <c r="F14">
-        <v>26.36680370514389</v>
+        <v>14.19968455907496</v>
       </c>
       <c r="G14">
-        <v>24.59269525750551</v>
+        <v>21.8828560287905</v>
       </c>
       <c r="H14">
-        <v>13.05454125539487</v>
+        <v>7.168001614330308</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.34648742810931</v>
+        <v>10.98295283106851</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.8555964444193</v>
+        <v>21.92869744867277</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.34263292025468</v>
+        <v>12.30388719845789</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.5614948363401</v>
+        <v>30.31170588495514</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.11889356623488</v>
+        <v>6.487816054799548</v>
       </c>
       <c r="E15">
-        <v>18.06645481314515</v>
+        <v>16.33624350923605</v>
       </c>
       <c r="F15">
-        <v>26.3884102075726</v>
+        <v>14.19255001505573</v>
       </c>
       <c r="G15">
-        <v>24.59655280290561</v>
+        <v>21.77310302936382</v>
       </c>
       <c r="H15">
-        <v>13.06101746431206</v>
+        <v>7.167585899539245</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.34100780717929</v>
+        <v>10.95296284400949</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.79908594657228</v>
+        <v>21.81159570989857</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.35215956376791</v>
+        <v>12.27689721782916</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.17397728069621</v>
+        <v>29.36778786956927</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.14809769901478</v>
+        <v>6.529844939661167</v>
       </c>
       <c r="E16">
-        <v>18.02354877434553</v>
+        <v>16.07358459275092</v>
       </c>
       <c r="F16">
-        <v>26.51516010195302</v>
+        <v>14.16829782048727</v>
       </c>
       <c r="G16">
-        <v>24.62286003986943</v>
+        <v>21.15211579291995</v>
       </c>
       <c r="H16">
-        <v>13.09905590149978</v>
+        <v>7.169175879162696</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.31013961556542</v>
+        <v>10.78105031767006</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.47050017657939</v>
+        <v>21.12954380268349</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.40874053948781</v>
+        <v>12.13032815274097</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.93274304441507</v>
+        <v>28.77558100117172</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.16658556166537</v>
+        <v>6.557028606399004</v>
       </c>
       <c r="E17">
-        <v>17.99815570075009</v>
+        <v>15.9128314519275</v>
       </c>
       <c r="F17">
-        <v>26.59552465970651</v>
+        <v>14.16776392307679</v>
       </c>
       <c r="G17">
-        <v>24.64273139673871</v>
+        <v>20.77842099039276</v>
       </c>
       <c r="H17">
-        <v>13.12321623598798</v>
+        <v>7.173582152209192</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.29168546641611</v>
+        <v>10.67557277754113</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.26473889651674</v>
+        <v>20.70127733649409</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.44521842292891</v>
+        <v>12.04753357762941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.79274127557897</v>
+        <v>28.43010924770994</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.1774297378174</v>
+        <v>6.573167403860666</v>
       </c>
       <c r="E18">
-        <v>17.9838955430078</v>
+        <v>15.82053153200461</v>
       </c>
       <c r="F18">
-        <v>26.64270319663602</v>
+        <v>14.17252505254794</v>
       </c>
       <c r="G18">
-        <v>24.65552592567762</v>
+        <v>20.56621459868629</v>
       </c>
       <c r="H18">
-        <v>13.13741532251888</v>
+        <v>7.177332439393842</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.28125102771987</v>
+        <v>10.61491269539937</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.14487420611554</v>
+        <v>20.45131374032766</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.46684649401085</v>
+        <v>12.00248404702463</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.74512807511792</v>
+        <v>28.31230375585523</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.18113755421394</v>
+        <v>6.578717170058809</v>
       </c>
       <c r="E19">
-        <v>17.9791269791775</v>
+        <v>15.78931016101668</v>
       </c>
       <c r="F19">
-        <v>26.6588407446175</v>
+        <v>14.17498781919048</v>
       </c>
       <c r="G19">
-        <v>24.66009171508138</v>
+        <v>20.49484092878053</v>
       </c>
       <c r="H19">
-        <v>13.14227483344368</v>
+        <v>7.178806814013804</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.27774924620818</v>
+        <v>10.59437689322669</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.10403183222347</v>
+        <v>20.36605442241216</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.4742802633255</v>
+        <v>11.98766818881913</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.95855310866448</v>
+        <v>28.83912397787949</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.16459572149209</v>
+        <v>6.554082505698938</v>
       </c>
       <c r="E20">
-        <v>18.00082319389787</v>
+        <v>15.92992773409419</v>
       </c>
       <c r="F20">
-        <v>26.58687080546188</v>
+        <v>14.16729155040342</v>
       </c>
       <c r="G20">
-        <v>24.64047462261968</v>
+        <v>20.81792009026877</v>
       </c>
       <c r="H20">
-        <v>13.12061298795694</v>
+        <v>7.172986244387205</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.29363138090502</v>
+        <v>10.68680054302085</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.28679996886698</v>
+        <v>20.74724300047277</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.44126827539599</v>
+        <v>12.05607997264109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.66043112699017</v>
+        <v>30.55136108411029</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.11153032478737</v>
+        <v>6.477407313589106</v>
       </c>
       <c r="E21">
-        <v>18.07781593916361</v>
+        <v>16.40415757564459</v>
       </c>
       <c r="F21">
-        <v>26.35649478106064</v>
+        <v>14.20340679705674</v>
       </c>
       <c r="G21">
-        <v>24.59091999184384</v>
+        <v>21.93562435261306</v>
       </c>
       <c r="H21">
-        <v>13.05145213291888</v>
+        <v>7.168272829405176</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.349124394905</v>
+        <v>10.99733250057177</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.88261010968844</v>
+        <v>21.9846571731274</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.33809988399599</v>
+        <v>12.31697431745468</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.107241519722</v>
+        <v>31.62767329169438</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.07871856971607</v>
+        <v>6.432022510536524</v>
       </c>
       <c r="E22">
-        <v>18.1311215141799</v>
+        <v>16.71509212420133</v>
       </c>
       <c r="F22">
-        <v>26.2145058612284</v>
+        <v>14.27633543467625</v>
       </c>
       <c r="G22">
-        <v>24.57082473793097</v>
+        <v>22.68913742482662</v>
       </c>
       <c r="H22">
-        <v>13.00895725902388</v>
+        <v>7.176976481800768</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.3869386452361</v>
+        <v>11.20008522026125</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.25807062232969</v>
+        <v>22.7613678161235</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.27648765090088</v>
+        <v>12.51128765197068</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.86989515375588</v>
+        <v>31.05711043793865</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.09605996904998</v>
+        <v>6.455800358698969</v>
       </c>
       <c r="E23">
-        <v>18.10240245404467</v>
+        <v>16.54906850184984</v>
       </c>
       <c r="F23">
-        <v>26.28949988130032</v>
+        <v>14.23270673652196</v>
       </c>
       <c r="G23">
-        <v>24.58041924510137</v>
+        <v>22.28492360569903</v>
       </c>
       <c r="H23">
-        <v>13.03138949696039</v>
+        <v>7.171206491730123</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.3666177217372</v>
+        <v>11.09190217016599</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.05897447996225</v>
+        <v>22.34973225708424</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.30883669748244</v>
+        <v>12.40536173773191</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94688845935621</v>
+        <v>28.8104117895399</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.16549465765407</v>
+        <v>6.555412850215628</v>
       </c>
       <c r="E24">
-        <v>17.9996161643394</v>
+        <v>15.92219812855728</v>
       </c>
       <c r="F24">
-        <v>26.59078017386588</v>
+        <v>14.16748937214756</v>
       </c>
       <c r="G24">
-        <v>24.64149064360161</v>
+        <v>20.80005432220348</v>
       </c>
       <c r="H24">
-        <v>13.1217889539954</v>
+        <v>7.173251874031523</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.29275108690959</v>
+        <v>10.68172452829616</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.27683104261209</v>
+        <v>20.72647360026346</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.4430520928447</v>
+        <v>12.05220821486722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.90405247994171</v>
+        <v>26.20143634173908</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.24843994939838</v>
+        <v>6.681991782673114</v>
       </c>
       <c r="E25">
-        <v>17.9019904851601</v>
+        <v>15.25251044268317</v>
       </c>
       <c r="F25">
-        <v>26.95223149841131</v>
+        <v>14.28803985495911</v>
       </c>
       <c r="G25">
-        <v>24.75944733760801</v>
+        <v>19.30382687710248</v>
       </c>
       <c r="H25">
-        <v>13.23086662253746</v>
+        <v>7.221392723509672</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.21998165234376</v>
+        <v>10.23979008641747</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.37555565823421</v>
+        <v>18.83638102919637</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.61252726398534</v>
+        <v>11.76882270642842</v>
       </c>
     </row>
   </sheetData>
